--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_25_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_25_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_24</t>
+          <t>model_25_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9552429681007328</v>
+        <v>0.9885061866495974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7760221700466835</v>
+        <v>0.791846279049048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9752020427460671</v>
+        <v>0.8753582933046132</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.157452136141744</v>
+        <v>0.954858995490844</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9598004468501899</v>
+        <v>0.9350580601701719</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2992904783975814</v>
+        <v>0.07685918279828625</v>
       </c>
       <c r="H2" t="n">
-        <v>1.497740780220904</v>
+        <v>1.39192489045877</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3540691382959119</v>
+        <v>0.2394639797657122</v>
       </c>
       <c r="J2" t="n">
-        <v>0.234943764730899</v>
+        <v>0.2409059126418455</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2945064536704372</v>
+        <v>0.2401849462037789</v>
       </c>
       <c r="L2" t="n">
-        <v>1.560630112140929</v>
+        <v>0.9524761448227941</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5470744724418984</v>
+        <v>0.2772348874118953</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010635334312697</v>
+        <v>1.00672808586365</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5703645653340287</v>
+        <v>0.2890373505243522</v>
       </c>
       <c r="P2" t="n">
-        <v>252.4126813550687</v>
+        <v>135.1315606524855</v>
       </c>
       <c r="Q2" t="n">
-        <v>404.7721594635938</v>
+        <v>214.3584892689186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_23</t>
+          <t>model_25_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9548827200901839</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7757460321837831</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9755334856345269</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.073854344731134</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9605479670877349</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3016994585029116</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H3" t="n">
-        <v>1.499587315381617</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3493367445463168</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2287233126099059</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2890300362240583</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L3" t="n">
-        <v>1.559399485558427</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5492717528718472</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010720937800352</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5726553885408779</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P3" t="n">
-        <v>252.3966478552768</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q3" t="n">
-        <v>404.7561259638018</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_22</t>
+          <t>model_25_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9545008716000467</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7754495213714574</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9758590533720082</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.994149341230249</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9612699947575388</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.30425288111471</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H4" t="n">
-        <v>1.501570084548945</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3446882371274791</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2227925200648541</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2837403801999374</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L4" t="n">
-        <v>1.558136710680925</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5515912264664024</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010811674075236</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5750736069283255</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P4" t="n">
-        <v>252.3797921551916</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q4" t="n">
-        <v>404.7392702637167</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_21</t>
+          <t>model_25_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9540968076503423</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7751320246723901</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9761783319372453</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.918508397537806</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9619652557616172</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3069548586069266</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H5" t="n">
-        <v>1.503693186437547</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3401295275002184</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2171641313157482</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2786468197833968</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L5" t="n">
-        <v>1.556839400520444</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5540350698348676</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N5" t="n">
-        <v>1.010907689271206</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5776214897684395</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P5" t="n">
-        <v>252.3621091651495</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q5" t="n">
-        <v>404.7215872736746</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_20</t>
+          <t>model_25_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9536696671643948</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7747927096975424</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D6" t="n">
-        <v>0.976491036870911</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.847190987182592</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9626321517150521</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3098111490032584</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H6" t="n">
-        <v>1.505962187236755</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3356646772196042</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2118574536030697</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2737610649223582</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L6" t="n">
-        <v>1.555502131095637</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5566068172446852</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01100918800054</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5803027217897442</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P6" t="n">
-        <v>252.3435847278047</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q6" t="n">
-        <v>404.7030628363298</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_19</t>
+          <t>model_25_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9532185934481571</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7744308445952268</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9767966124478277</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.780383280799031</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9632691985283007</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.312827481020744</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H7" t="n">
-        <v>1.508381980842175</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3313016210172226</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2068863397511365</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K7" t="n">
-        <v>0.26909398822395</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L7" t="n">
-        <v>1.554122545079941</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5593098256071888</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N7" t="n">
-        <v>1.011116373834101</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5831208028142383</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P7" t="n">
-        <v>252.3242068384887</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q7" t="n">
-        <v>404.6836849470138</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_18</t>
+          <t>model_25_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9527427660424266</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7740456256188455</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9770947221314394</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.718342333404422</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9638747637771785</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3160093410738475</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H8" t="n">
-        <v>1.510957941911007</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3270451640150102</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2022699170407126</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2646575490115927</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L8" t="n">
-        <v>1.552696079396178</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5621470813531344</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N8" t="n">
-        <v>1.011229441732493</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5860788464112179</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P8" t="n">
-        <v>252.3039670109437</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q8" t="n">
-        <v>404.6634451194687</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_17</t>
+          <t>model_25_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9522414141395541</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7736362841527544</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9773847776536149</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.661279762034414</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9644471997411713</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3193618835568694</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H9" t="n">
-        <v>1.513695210179602</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3229037055979729</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1980239317447083</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2604638186713406</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L9" t="n">
-        <v>1.551218807950483</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5651211229080624</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N9" t="n">
-        <v>1.011348574857928</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5891794990722538</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2828607759308</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q9" t="n">
-        <v>404.6423388844559</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_16</t>
+          <t>model_25_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9517136481689893</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7732019347453528</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9776663525123996</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.609439693410664</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9649848376749528</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3228910570321751</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H10" t="n">
-        <v>1.516599706666892</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3188833354281722</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1941665491586164</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2565250226193893</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5496892845395</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5682350367868696</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N10" t="n">
-        <v>1.011473984593507</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5924259787115722</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P10" t="n">
-        <v>252.2608805947658</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q10" t="n">
-        <v>404.6203587032908</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_15</t>
+          <t>model_25_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9511584710504193</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7727417292132144</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.977939195106852</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.563111002710924</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9654859982929397</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.326603528980408</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H11" t="n">
-        <v>1.519677103179353</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3149876459034686</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1907192642786781</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K11" t="n">
-        <v>0.252853463491043</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L11" t="n">
-        <v>1.548096100600667</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M11" t="n">
-        <v>0.571492370010666</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N11" t="n">
-        <v>1.011605907869207</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5958219833543149</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P11" t="n">
-        <v>252.2380165865955</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.5974946951206</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_14</t>
+          <t>model_25_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9505749864694845</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7722548919526586</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9782026411858705</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.522503481110618</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9659489420390623</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3305052930598189</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H12" t="n">
-        <v>1.522932586182369</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3112261213056822</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1876976875168446</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2494618854699793</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L12" t="n">
-        <v>1.54643710965216</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5748958975847879</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N12" t="n">
-        <v>1.011744557670618</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5993704061435405</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P12" t="n">
-        <v>252.2142652090181</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q12" t="n">
-        <v>404.5737433175432</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_13</t>
+          <t>model_25_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9499623213644833</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7717403894724852</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9784560689717907</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.487929428823609</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9663714754842309</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3346021874380244</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H13" t="n">
-        <v>1.526373066636355</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3076076394742088</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1851250569096113</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K13" t="n">
-        <v>0.246366357864735</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L13" t="n">
-        <v>1.544712050117629</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5784480853439006</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N13" t="n">
-        <v>1.011890141457945</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O13" t="n">
-        <v>0.603073817889601</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P13" t="n">
-        <v>252.1896259059582</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q13" t="n">
-        <v>404.5491040144833</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9493194435468538</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7711974678734583</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9786991672449363</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.45963570770204</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9667520567032875</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3389011143646932</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H14" t="n">
-        <v>1.530003585868972</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3041366440525908</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1830197412715821</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2435781769926677</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L14" t="n">
-        <v>1.542909399729024</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5821521402216892</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012042904503718</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6069355620519876</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P14" t="n">
-        <v>252.1640938243862</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.5235719329112</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_11</t>
+          <t>model_25_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9486453462569495</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7706250057977575</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9789312568609172</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.43791362733796</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9670885364329833</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3434088060462158</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H15" t="n">
-        <v>1.533831642405128</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3008228319713666</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1814034167420327</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2411130885983914</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L15" t="n">
-        <v>1.541030347765813</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5860109265587253</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N15" t="n">
-        <v>1.012203086037953</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6109586249121803</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P15" t="n">
-        <v>252.1376673742972</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q15" t="n">
-        <v>404.4971454828223</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_10</t>
+          <t>model_25_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9479389889392177</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7700221655774088</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9791518703275504</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.42305566975971</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9673789716137141</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3481322206823652</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H16" t="n">
-        <v>1.537862837734425</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2976728781575343</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1802978467003878</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K16" t="n">
-        <v>0.238985327755394</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L16" t="n">
-        <v>1.54065051526015</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5900273050311868</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012370933321374</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6151459889312643</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P16" t="n">
-        <v>252.1103458537575</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q16" t="n">
-        <v>404.4698239622825</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_9</t>
+          <t>model_25_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9471994028910646</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7693879695517432</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9793604285238634</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.415356762378838</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.967621291501803</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3530778359918449</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H17" t="n">
-        <v>1.542103709478255</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2946950513915245</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1797249764852951</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2372100649650609</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L17" t="n">
-        <v>1.540349691557217</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5942035307803589</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N17" t="n">
-        <v>1.012546676540737</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6195000052565577</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P17" t="n">
-        <v>252.0821334955892</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q17" t="n">
-        <v>404.4416116041143</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_8</t>
+          <t>model_25_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9464254594238829</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.768721344781284</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9795563612117159</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.415110596327359</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9678134769777638</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3582531995205717</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H18" t="n">
-        <v>1.54656143238784</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2918974936232973</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1797066594447226</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K18" t="n">
-        <v>0.235802092524142</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L18" t="n">
-        <v>1.539975732028251</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5985425628312256</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N18" t="n">
-        <v>1.012730583899275</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6240237588848643</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P18" t="n">
-        <v>252.0530305626843</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q18" t="n">
-        <v>404.4125086712094</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_7</t>
+          <t>model_25_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9456160306438127</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7680212805047786</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9797390246079849</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.422647496109785</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9679531981783912</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3636658534999778</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H19" t="n">
-        <v>1.551242765428331</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2892893968896473</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1802674747897958</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2347784792728703</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L19" t="n">
-        <v>1.539527631302897</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6030471403629883</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N19" t="n">
-        <v>1.012922923411371</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6287201056079152</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P19" t="n">
-        <v>252.0230396356835</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q19" t="n">
-        <v>404.3825177442085</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_6</t>
+          <t>model_25_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9447700360448104</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C20" t="n">
-        <v>0.767286717412518</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D20" t="n">
-        <v>0.979907777220828</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.438280022739372</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9680382635491813</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3693230232789536</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H20" t="n">
-        <v>1.55615479220863</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2868799205121091</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1814306799629071</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2341552807863548</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L20" t="n">
-        <v>1.538986623401982</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6077195268205174</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013123951830936</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6335914052301146</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P20" t="n">
-        <v>251.9921672320847</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q20" t="n">
-        <v>404.3516453406098</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_5</t>
+          <t>model_25_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9438863305158554</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7665166443313934</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9800621913849787</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.462329163423759</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9680665972783029</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3752323662201655</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H21" t="n">
-        <v>1.56130427444797</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2846751707626965</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1832201593935714</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2339477046958505</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L21" t="n">
-        <v>1.538349912833011</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6125621325385414</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N21" t="n">
-        <v>1.013333941263559</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6386401706991306</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P21" t="n">
-        <v>251.9604196033151</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q21" t="n">
-        <v>404.3198977118402</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_4</t>
+          <t>model_25_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9429637363073183</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7657099658884801</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9802012993972704</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.495143490158777</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9680355250732743</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3814017579408078</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H22" t="n">
-        <v>1.566698536910144</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I22" t="n">
-        <v>0.282688964659598</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1856618500757477</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2341753431692581</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L22" t="n">
-        <v>1.537608270317581</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6175773295230386</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N22" t="n">
-        <v>1.013553171570538</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6438688750021468</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P22" t="n">
-        <v>251.9278039532952</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q22" t="n">
-        <v>404.2872820618203</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_3</t>
+          <t>model_25_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9420009706718978</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7648654670249839</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9803245629440471</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.537037983066878</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9679428972740235</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G23" t="n">
-        <v>0.387839776177993</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H23" t="n">
-        <v>1.572345704698903</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2809289883299503</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1887791894560206</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2348539448583612</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L23" t="n">
-        <v>1.536755261962156</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6227678348935445</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N23" t="n">
-        <v>1.013781947563113</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6492803509321025</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P23" t="n">
-        <v>251.8943259452805</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q23" t="n">
-        <v>404.2538040538055</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_2</t>
+          <t>model_25_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9409968319415141</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7639820400358596</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9804313890640932</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.588393065970526</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9677861688875827</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3945544564917028</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H24" t="n">
-        <v>1.578253185042985</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2794037081673593</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1926004846000838</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K24" t="n">
-        <v>0.23600215466826</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L24" t="n">
-        <v>1.535786921622736</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6281356991062543</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014020554786175</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6548767362373582</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P24" t="n">
-        <v>251.8599962179071</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q24" t="n">
-        <v>404.2194743264322</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_1</t>
+          <t>model_25_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9399499824729989</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7630584554916204</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9805209718304151</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.649564517084765</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9675628284752427</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4015547437079626</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H25" t="n">
-        <v>1.584429199143027</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2781246313243366</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1971522087115355</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2376383716817788</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L25" t="n">
-        <v>1.534687046272303</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6336834728063867</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014269311095525</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6606606901493799</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P25" t="n">
-        <v>251.8248228138496</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q25" t="n">
-        <v>404.1843009223747</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_25_8_0</t>
+          <t>model_25_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9388593377318497</v>
+        <v>0.988506064997365</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7620936627247322</v>
+        <v>0.791846227069085</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9805926914932879</v>
+        <v>0.8753568874476556</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.720865226763339</v>
+        <v>0.954858427448121</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9672706279657365</v>
+        <v>0.9350572851906334</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4088478901139841</v>
+        <v>0.07685999628732404</v>
       </c>
       <c r="H26" t="n">
-        <v>1.590880772817671</v>
+        <v>1.391925238049022</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2771006066850412</v>
+        <v>0.2394666807244119</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2024576437387594</v>
+        <v>0.240908944139529</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2397790655221966</v>
+        <v>0.2401878124319705</v>
       </c>
       <c r="L26" t="n">
-        <v>1.533439922173911</v>
+        <v>0.9524814042827857</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6394121441714914</v>
+        <v>0.2772363545556824</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014528474202333</v>
+        <v>1.006728157074713</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6666332429144817</v>
+        <v>0.2890388801274877</v>
       </c>
       <c r="P26" t="n">
-        <v>251.7888241978512</v>
+        <v>135.1315394842997</v>
       </c>
       <c r="Q26" t="n">
-        <v>404.1483023063763</v>
+        <v>214.3584681007327</v>
       </c>
     </row>
   </sheetData>
